--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>248639.319038582</v>
+        <v>246558.5776452834</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2365544.372062216</v>
+        <v>2365544.372062215</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>174.1552958834841</v>
+      </c>
+      <c r="W2" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="V2" t="n">
-        <v>195.6868312827672</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>31.87056525089385</v>
       </c>
       <c r="S3" t="n">
         <v>171.5363898835276</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.3218893497152</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>135.1613884042816</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>113.6616009681633</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.2420339516669</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.2420339516669</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="W5" t="n">
-        <v>227.766483451776</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="X5" t="n">
-        <v>263.2420339516669</v>
+        <v>205.6802163062333</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>123.4472561760251</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>103.1918264831123</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.3870695882591</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>286.9675612270947</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.9143862661342</v>
+        <v>13.91438626613415</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>325.2563498869367</v>
       </c>
       <c r="I8" t="n">
-        <v>156.9514780432986</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>177.3830154996373</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>72.05844852675624</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2345848079164</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1218,10 +1218,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>2.57157394409855</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.6006837567287</v>
@@ -1269,7 +1269,7 @@
         <v>225.8925114621273</v>
       </c>
       <c r="V9" t="n">
-        <v>222.7962930315068</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.6929033555435</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3682127838557</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2850602706034</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>165.8783267726529</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>1.628456944063004</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>182.4861493781438</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274084</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>58.58875680190197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>58.92732804414626</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>126.9025952420717</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>17.01715209213731</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>127.8558240758949</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>194.9576419790506</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141961</v>
+        <v>45.27194911804647</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.46987612228591</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>179.5197244407509</v>
@@ -2533,13 +2533,13 @@
         <v>267.836266855725</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
         <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
         <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.01815992141962</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>24.1994286775996</v>
+        <v>91.56326686094043</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>267.836266855725</v>
+        <v>21.68458802119947</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937387</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>207.3085698461848</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>41.77916877344312</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246838</v>
+        <v>130.5127428246837</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407509</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155369</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U31" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V31" t="n">
         <v>233.7365577809756</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937385</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>207.3085698461847</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.77916877344166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>299.789776127315</v>
+        <v>546.8228391183679</v>
       </c>
       <c r="C2" t="n">
         <v>299.789776127315</v>
       </c>
       <c r="D2" t="n">
-        <v>52.75671313626202</v>
+        <v>299.789776127315</v>
       </c>
       <c r="E2" t="n">
         <v>52.75671313626202</v>
@@ -4358,22 +4358,22 @@
         <v>969.7703423957685</v>
       </c>
       <c r="T2" t="n">
-        <v>744.486305060557</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="U2" t="n">
-        <v>497.4532420695041</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="V2" t="n">
-        <v>299.789776127315</v>
+        <v>793.8559021094209</v>
       </c>
       <c r="W2" t="n">
-        <v>299.789776127315</v>
+        <v>546.8228391183679</v>
       </c>
       <c r="X2" t="n">
-        <v>299.789776127315</v>
+        <v>546.8228391183679</v>
       </c>
       <c r="Y2" t="n">
-        <v>299.789776127315</v>
+        <v>546.8228391183679</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.56501858889139</v>
+        <v>168.4994282501427</v>
       </c>
       <c r="C3" t="n">
-        <v>19.56501858889139</v>
+        <v>168.4994282501427</v>
       </c>
       <c r="D3" t="n">
         <v>19.56501858889139</v>
@@ -4410,19 +4410,19 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L3" t="n">
-        <v>377.8476075409625</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M3" t="n">
-        <v>494.0167193695077</v>
+        <v>309.8793444333311</v>
       </c>
       <c r="N3" t="n">
-        <v>736.1338244070387</v>
+        <v>551.9964494708621</v>
       </c>
       <c r="O3" t="n">
-        <v>978.2509294445697</v>
+        <v>794.1135545083931</v>
       </c>
       <c r="P3" t="n">
         <v>978.2509294445697</v>
@@ -4431,28 +4431,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R3" t="n">
-        <v>877.5769898880285</v>
+        <v>946.0584392921517</v>
       </c>
       <c r="S3" t="n">
-        <v>704.3079091975965</v>
+        <v>772.7893586017196</v>
       </c>
       <c r="T3" t="n">
-        <v>704.3079091975965</v>
+        <v>772.7893586017196</v>
       </c>
       <c r="U3" t="n">
-        <v>704.3079091975965</v>
+        <v>544.5662654757435</v>
       </c>
       <c r="V3" t="n">
-        <v>469.1558009658538</v>
+        <v>544.5662654757435</v>
       </c>
       <c r="W3" t="n">
-        <v>227.4165187944242</v>
+        <v>544.5662654757435</v>
       </c>
       <c r="X3" t="n">
-        <v>19.56501858889139</v>
+        <v>336.7147652702107</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.56501858889139</v>
+        <v>336.7147652702107</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
         <v>19.56501858889139</v>
@@ -4519,19 +4519,19 @@
         <v>156.0916735427112</v>
       </c>
       <c r="U4" t="n">
-        <v>156.0916735427112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>156.0916735427112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0916735427112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.28197559507151</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>556.9999364092505</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="C5" t="n">
-        <v>556.9999364092505</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="D5" t="n">
-        <v>556.9999364092505</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="E5" t="n">
-        <v>556.9999364092505</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="F5" t="n">
-        <v>291.0988920136273</v>
+        <v>40.56170762187421</v>
       </c>
       <c r="G5" t="n">
         <v>25.19784761800413</v>
@@ -4601,16 +4601,16 @@
         <v>1052.968135806668</v>
       </c>
       <c r="V5" t="n">
-        <v>1052.968135806668</v>
+        <v>787.0670914110444</v>
       </c>
       <c r="W5" t="n">
-        <v>822.9009808048736</v>
+        <v>521.1660470154213</v>
       </c>
       <c r="X5" t="n">
-        <v>556.9999364092505</v>
+        <v>313.4082527667009</v>
       </c>
       <c r="Y5" t="n">
-        <v>556.9999364092505</v>
+        <v>313.4082527667009</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>469.1409998161128</v>
+        <v>344.4468016585116</v>
       </c>
       <c r="C6" t="n">
-        <v>294.6879705349858</v>
+        <v>169.9937723773846</v>
       </c>
       <c r="D6" t="n">
-        <v>145.7535608737345</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E6" t="n">
-        <v>145.7535608737345</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F6" t="n">
-        <v>145.7535608737345</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G6" t="n">
         <v>21.05936271613335</v>
@@ -4650,19 +4650,19 @@
         <v>21.05936271613335</v>
       </c>
       <c r="L6" t="n">
-        <v>261.6628906109959</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="M6" t="n">
-        <v>522.2725042231461</v>
+        <v>281.6689763282836</v>
       </c>
       <c r="N6" t="n">
-        <v>782.8821178352964</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="O6" t="n">
-        <v>1043.295181927789</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806668</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806668</v>
@@ -4674,22 +4674,22 @@
         <v>1052.968135806668</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806668</v>
+        <v>948.7339676419076</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.968135806668</v>
+        <v>720.5136388841124</v>
       </c>
       <c r="V6" t="n">
-        <v>1052.968135806668</v>
+        <v>720.5136388841124</v>
       </c>
       <c r="W6" t="n">
-        <v>1052.968135806668</v>
+        <v>720.5136388841124</v>
       </c>
       <c r="X6" t="n">
-        <v>845.1166356011347</v>
+        <v>512.6621386785796</v>
       </c>
       <c r="Y6" t="n">
-        <v>637.3563368361808</v>
+        <v>512.6621386785796</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
         <v>21.05936271613335</v>
@@ -4753,22 +4753,22 @@
         <v>182.5089274706538</v>
       </c>
       <c r="T7" t="n">
-        <v>38.68360465423044</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.164902306549</v>
+        <v>1162.781045907523</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.164902306549</v>
+        <v>1162.781045907523</v>
       </c>
       <c r="D8" t="n">
-        <v>1020.298678844837</v>
+        <v>804.5153473007729</v>
       </c>
       <c r="E8" t="n">
-        <v>634.5104262465929</v>
+        <v>804.5153473007729</v>
       </c>
       <c r="F8" t="n">
-        <v>627.5649254973895</v>
+        <v>393.5294425111653</v>
       </c>
       <c r="G8" t="n">
-        <v>209.4695858346277</v>
+        <v>379.4745068888075</v>
       </c>
       <c r="H8" t="n">
-        <v>209.4695858346277</v>
+        <v>50.93273932624521</v>
       </c>
       <c r="I8" t="n">
         <v>50.93273932624521</v>
@@ -4829,25 +4829,25 @@
         <v>2546.63696631226</v>
       </c>
       <c r="S8" t="n">
-        <v>2367.462203181314</v>
+        <v>2546.63696631226</v>
       </c>
       <c r="T8" t="n">
-        <v>2367.462203181314</v>
+        <v>2473.850654669072</v>
       </c>
       <c r="U8" t="n">
-        <v>2367.462203181314</v>
+        <v>2220.078346782288</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.399315837743</v>
+        <v>1889.015459438717</v>
       </c>
       <c r="W8" t="n">
-        <v>1683.630660567629</v>
+        <v>1536.246804168603</v>
       </c>
       <c r="X8" t="n">
-        <v>1310.164902306549</v>
+        <v>1162.781045907523</v>
       </c>
       <c r="Y8" t="n">
-        <v>1310.164902306549</v>
+        <v>1162.781045907523</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>842.1262495713564</v>
+        <v>832.0209019774993</v>
       </c>
       <c r="C9" t="n">
-        <v>667.6732202902294</v>
+        <v>657.5678726963723</v>
       </c>
       <c r="D9" t="n">
-        <v>518.7388106289782</v>
+        <v>508.6334630351211</v>
       </c>
       <c r="E9" t="n">
-        <v>359.5013556235227</v>
+        <v>506.0359135966377</v>
       </c>
       <c r="F9" t="n">
         <v>359.5013556235227</v>
@@ -4917,16 +4917,16 @@
         <v>1905.237502927998</v>
       </c>
       <c r="V9" t="n">
-        <v>1680.190742290113</v>
+        <v>1670.085394696256</v>
       </c>
       <c r="W9" t="n">
-        <v>1425.953385561911</v>
+        <v>1415.848037968054</v>
       </c>
       <c r="X9" t="n">
-        <v>1218.101885356378</v>
+        <v>1207.996537762521</v>
       </c>
       <c r="Y9" t="n">
-        <v>1010.341586591424</v>
+        <v>1000.236238997567</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.9112206106579</v>
+        <v>219.9915401180186</v>
       </c>
       <c r="C10" t="n">
-        <v>664.9112206106579</v>
+        <v>219.9915401180186</v>
       </c>
       <c r="D10" t="n">
-        <v>514.7945811983221</v>
+        <v>219.9915401180186</v>
       </c>
       <c r="E10" t="n">
-        <v>366.881487615929</v>
+        <v>219.9915401180186</v>
       </c>
       <c r="F10" t="n">
         <v>219.9915401180186</v>
@@ -4993,19 +4993,19 @@
         <v>676.7222341011059</v>
       </c>
       <c r="U10" t="n">
-        <v>676.7222341011059</v>
+        <v>387.5454055449408</v>
       </c>
       <c r="V10" t="n">
-        <v>676.7222341011059</v>
+        <v>387.5454055449408</v>
       </c>
       <c r="W10" t="n">
-        <v>676.7222341011059</v>
+        <v>219.9915401180186</v>
       </c>
       <c r="X10" t="n">
-        <v>676.7222341011059</v>
+        <v>219.9915401180186</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.7222341011059</v>
+        <v>219.9915401180186</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,28 +5057,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404653</v>
+        <v>360.513228254778</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404653</v>
+        <v>360.513228254778</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404653</v>
+        <v>210.3965888424424</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404653</v>
+        <v>210.3965888424424</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>210.3965888424424</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1003.591713218973</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1003.591713218973</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>714.1745431820127</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X13" t="n">
-        <v>486.1849922839954</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404653</v>
+        <v>360.513228254778</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5361,13 +5361,13 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>472.4860691490219</v>
+        <v>475.7924673804748</v>
       </c>
       <c r="C16" t="n">
-        <v>472.4860691490219</v>
+        <v>306.8562844525678</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>156.7396450402316</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>156.7396450402316</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>156.7396450402316</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>874.927113122792</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V16" t="n">
-        <v>874.927113122792</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="W16" t="n">
-        <v>874.927113122792</v>
+        <v>696.5850465240051</v>
       </c>
       <c r="X16" t="n">
-        <v>874.927113122792</v>
+        <v>696.5850465240051</v>
       </c>
       <c r="Y16" t="n">
-        <v>654.1345339792618</v>
+        <v>475.7924673804748</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,58 +5501,58 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.6134626728254</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C19" t="n">
-        <v>710.6134626728254</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
         <v>415.8104215925219</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557903</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W19" t="n">
-        <v>892.2619275030652</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X19" t="n">
-        <v>892.2619275030652</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.2619275030652</v>
+        <v>713.8401545872508</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,28 +5750,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>933.2366688293929</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>933.2366688293929</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>783.1200294170571</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>635.206935834664</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>488.3169883367536</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1301.989359467952</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1078.203944257458</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>789.0753054710162</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>789.0753054710162</v>
+        <v>933.2366688293929</v>
       </c>
       <c r="W22" t="n">
-        <v>499.6581354340557</v>
+        <v>933.2366688293929</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>933.2366688293929</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>933.2366688293929</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5987,28 +5987,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6020,13 +6020,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555215</v>
+        <v>410.8745301331627</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>468.0560867350574</v>
+        <v>271.2493253977859</v>
       </c>
       <c r="C25" t="n">
-        <v>468.0560867350574</v>
+        <v>271.2493253977859</v>
       </c>
       <c r="D25" t="n">
-        <v>468.0560867350574</v>
+        <v>271.2493253977859</v>
       </c>
       <c r="E25" t="n">
-        <v>468.0560867350574</v>
+        <v>271.2493253977859</v>
       </c>
       <c r="F25" t="n">
-        <v>339.7530943309372</v>
+        <v>142.9463329936661</v>
       </c>
       <c r="G25" t="n">
-        <v>190.1647277445481</v>
+        <v>142.9463329936661</v>
       </c>
       <c r="H25" t="n">
-        <v>190.1647277445481</v>
+        <v>142.9463329936661</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L25" t="n">
         <v>562.148457242208</v>
@@ -6169,28 +6169,28 @@
         <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1632.057033590338</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1450.72397859968</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T25" t="n">
-        <v>1245.525518482976</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U25" t="n">
-        <v>974.9838347903244</v>
+        <v>987.5796692572801</v>
       </c>
       <c r="V25" t="n">
-        <v>738.8863016782278</v>
+        <v>751.4821361451834</v>
       </c>
       <c r="W25" t="n">
-        <v>468.0560867350574</v>
+        <v>480.6519212020131</v>
       </c>
       <c r="X25" t="n">
-        <v>468.0560867350574</v>
+        <v>271.2493253977859</v>
       </c>
       <c r="Y25" t="n">
-        <v>468.0560867350574</v>
+        <v>271.2493253977859</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>246.8054580466752</v>
+        <v>879.5625064160433</v>
       </c>
       <c r="C28" t="n">
-        <v>246.8054580466752</v>
+        <v>729.2132785819267</v>
       </c>
       <c r="D28" t="n">
-        <v>246.8054580466752</v>
+        <v>729.2132785819267</v>
       </c>
       <c r="E28" t="n">
-        <v>246.8054580466752</v>
+        <v>599.8871400933239</v>
       </c>
       <c r="F28" t="n">
-        <v>246.8054580466752</v>
+        <v>471.5841476892037</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>321.9957811028146</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>190.1647277445482</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.219337543655</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422081</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968147</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q28" t="n">
         <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.209000706182</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S28" t="n">
-        <v>1438.875945715525</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="T28" t="n">
-        <v>1233.677485598821</v>
+        <v>1346.966259596205</v>
       </c>
       <c r="U28" t="n">
-        <v>963.1358019061693</v>
+        <v>1325.062635332367</v>
       </c>
       <c r="V28" t="n">
-        <v>727.0382687940727</v>
+        <v>1088.96510222027</v>
       </c>
       <c r="W28" t="n">
-        <v>456.2080538509023</v>
+        <v>1088.96510222027</v>
       </c>
       <c r="X28" t="n">
-        <v>246.8054580466752</v>
+        <v>879.5625064160433</v>
       </c>
       <c r="Y28" t="n">
-        <v>246.8054580466752</v>
+        <v>879.5625064160433</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582214</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646855</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>229.0481448185525</v>
+        <v>271.2493253977877</v>
       </c>
       <c r="C31" t="n">
-        <v>229.0481448185525</v>
+        <v>271.2493253977877</v>
       </c>
       <c r="D31" t="n">
-        <v>229.0481448185525</v>
+        <v>271.2493253977877</v>
       </c>
       <c r="E31" t="n">
-        <v>229.0481448185525</v>
+        <v>271.2493253977877</v>
       </c>
       <c r="F31" t="n">
-        <v>229.0481448185525</v>
+        <v>271.2493253977877</v>
       </c>
       <c r="G31" t="n">
-        <v>229.0481448185525</v>
+        <v>229.0481448185523</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116198</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436551</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422079</v>
+        <v>562.1484572422082</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968147</v>
+        <v>851.9322746968151</v>
       </c>
       <c r="N31" t="n">
-        <v>1140.693458411786</v>
+        <v>1140.693458411787</v>
       </c>
       <c r="O31" t="n">
         <v>1392.785511104607</v>
@@ -6646,25 +6646,25 @@
         <v>1644.652868057294</v>
       </c>
       <c r="S31" t="n">
-        <v>1463.319813066636</v>
+        <v>1463.319813066637</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.121352949932</v>
+        <v>1258.121352949933</v>
       </c>
       <c r="U31" t="n">
-        <v>987.5796692572806</v>
+        <v>987.5796692572815</v>
       </c>
       <c r="V31" t="n">
-        <v>751.482136145184</v>
+        <v>751.482136145185</v>
       </c>
       <c r="W31" t="n">
-        <v>480.6519212020136</v>
+        <v>480.6519212020147</v>
       </c>
       <c r="X31" t="n">
-        <v>271.2493253977865</v>
+        <v>271.2493253977877</v>
       </c>
       <c r="Y31" t="n">
-        <v>229.0481448185525</v>
+        <v>271.2493253977877</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525401</v>
@@ -6865,43 +6865,43 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>634.0455001582214</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646855</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,16 +7169,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,7 +7406,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>257.4743158457519</v>
+        <v>199.3768089554827</v>
       </c>
       <c r="N3" t="n">
         <v>373.8491954283779</v>
@@ -8073,7 +8073,7 @@
         <v>385.2788254813443</v>
       </c>
       <c r="P3" t="n">
-        <v>132.4654202195568</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>138.9730561082392</v>
@@ -8298,22 +8298,22 @@
         <v>129.8481964236087</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429919</v>
       </c>
       <c r="M6" t="n">
         <v>392.8337743093849</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808121</v>
+        <v>364.1590328728273</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>134.2926466205232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863225</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,16 +9957,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>85.3000633212781</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>223.6742649934479</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>85.30006332127807</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231147</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231147</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231147</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.8651115193146</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>103.7512030204336</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>90.02671621631039</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>107.5662404192314</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>159.6204030945193</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>201.5675012599575</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>38.63774438748268</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.96316800455261</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
         <v>148.8457355557755</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>46.74621080337315</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>79.09339073865451</v>
+        <v>91.56326686094043</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>200.1835678092424</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141961</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.36383818334082</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>246.1516788345255</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>161.4308946390849</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D31" t="n">
-        <v>130.21438747536</v>
+        <v>130.2143874753599</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>128.0328771037167</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>106.313314147082</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141961</v>
+        <v>92.01815992141954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094042</v>
+        <v>91.56326686094035</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>158.4043990358008</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -26314,46 +26314,46 @@
         <v>348942.7521923203</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923207</v>
       </c>
       <c r="E2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770527</v>
       </c>
       <c r="F2" t="n">
         <v>332374.7007770527</v>
       </c>
       <c r="G2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770525</v>
       </c>
       <c r="H2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770527</v>
       </c>
       <c r="I2" t="n">
-        <v>336849.406099195</v>
+        <v>336849.4060991948</v>
       </c>
       <c r="J2" t="n">
-        <v>336849.4060991947</v>
+        <v>336849.4060991949</v>
       </c>
       <c r="K2" t="n">
-        <v>336849.4060991947</v>
+        <v>336849.4060991949</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923201</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="N2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923205</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>392050.2114169262</v>
       </c>
       <c r="E3" t="n">
-        <v>562418.1991553688</v>
+        <v>562418.1991553687</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428189</v>
+        <v>14720.8684342819</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589871</v>
+        <v>63988.37154589882</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750099</v>
+        <v>4807.454491750041</v>
       </c>
       <c r="L3" t="n">
         <v>134293.1781648034</v>
       </c>
       <c r="M3" t="n">
-        <v>144178.0711151435</v>
+        <v>144178.0711151433</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428187</v>
+        <v>14720.8684342819</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319655.8297120242</v>
+        <v>319655.8297120241</v>
       </c>
       <c r="C4" t="n">
         <v>312850.0144568523</v>
@@ -26424,40 +26424,40 @@
         <v>195179.7627826596</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.4835177339</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="F4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773396</v>
-      </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773392</v>
       </c>
       <c r="I4" t="n">
-        <v>42487.35768913277</v>
+        <v>42487.35768913275</v>
       </c>
       <c r="J4" t="n">
+        <v>42487.35768913272</v>
+      </c>
+      <c r="K4" t="n">
         <v>42487.3576891328</v>
       </c>
-      <c r="K4" t="n">
-        <v>42487.35768913281</v>
-      </c>
       <c r="L4" t="n">
-        <v>58851.27075905443</v>
+        <v>58851.2707590544</v>
       </c>
       <c r="M4" t="n">
-        <v>58851.27075905442</v>
+        <v>58851.27075905434</v>
       </c>
       <c r="N4" t="n">
-        <v>58851.2707590544</v>
+        <v>58851.27075905435</v>
       </c>
       <c r="O4" t="n">
-        <v>58851.27075905442</v>
+        <v>58851.27075905434</v>
       </c>
       <c r="P4" t="n">
-        <v>58851.2707590544</v>
+        <v>58851.27075905434</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>93534.2868092187</v>
       </c>
       <c r="J5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.28680921871</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.28680921868</v>
+        <v>93534.28680921871</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104788.9604595431</v>
+        <v>-104788.960459543</v>
       </c>
       <c r="C6" t="n">
-        <v>-37687.00985326058</v>
+        <v>-37687.00985326069</v>
       </c>
       <c r="D6" t="n">
-        <v>-318152.3856307312</v>
+        <v>-318152.3856307311</v>
       </c>
       <c r="E6" t="n">
-        <v>-358463.3078447668</v>
+        <v>-358560.7669707387</v>
       </c>
       <c r="F6" t="n">
-        <v>203954.8913106022</v>
+        <v>203857.43218463</v>
       </c>
       <c r="G6" t="n">
-        <v>203954.8913106019</v>
+        <v>203857.4321846297</v>
       </c>
       <c r="H6" t="n">
-        <v>203954.891310602</v>
+        <v>203857.4321846299</v>
       </c>
       <c r="I6" t="n">
-        <v>186106.8931665616</v>
+        <v>186035.7558366019</v>
       </c>
       <c r="J6" t="n">
-        <v>136839.3900549445</v>
+        <v>136768.252724985</v>
       </c>
       <c r="K6" t="n">
-        <v>196020.3071090931</v>
+        <v>195949.1697791338</v>
       </c>
       <c r="L6" t="n">
-        <v>58083.19744843688</v>
+        <v>58083.19744843704</v>
       </c>
       <c r="M6" t="n">
-        <v>48198.30449809702</v>
+        <v>48198.30449809732</v>
       </c>
       <c r="N6" t="n">
         <v>177655.5071789587</v>
       </c>
       <c r="O6" t="n">
-        <v>192376.3756132405</v>
+        <v>192376.3756132407</v>
       </c>
       <c r="P6" t="n">
-        <v>192376.3756132405</v>
+        <v>192376.3756132407</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.379164112033321e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678825</v>
+        <v>49.73080458678827</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>373.4172076263982</v>
       </c>
       <c r="E4" t="n">
+        <v>578.554401675508</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>244.5627323611427</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.67930159052423</v>
+      </c>
+      <c r="L4" t="n">
+        <v>373.4172076263983</v>
+      </c>
+      <c r="M4" t="n">
         <v>578.5544016755082</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>244.5627323611423</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.67930159052446</v>
-      </c>
-      <c r="L4" t="n">
-        <v>373.4172076263982</v>
-      </c>
-      <c r="M4" t="n">
-        <v>578.5544016755084</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.379164112033321e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>373.4172076263982</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755082</v>
+        <v>578.554401675508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7101594098651</v>
       </c>
       <c r="D2" t="n">
-        <v>110.1203092595405</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>137.3676377111194</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27430,16 +27430,16 @@
         <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>6.781739002849008</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>132.0654271873677</v>
+        <v>153.5969625866508</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>67.79663491008195</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,13 +27512,13 @@
         <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>12.3730938112044</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27561,7 +27561,7 @@
         <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>151.157279588646</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>112.0480544208739</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118137</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6340117900446</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9681874521645</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.5273214908784</v>
@@ -27673,13 +27673,13 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846802</v>
       </c>
       <c r="W5" t="n">
-        <v>121.474485265637</v>
+        <v>85.99893476574613</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4890667268022</v>
+        <v>164.0508843722358</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>13.84676050367052</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
         <v>111.757373777286</v>
@@ -27746,10 +27746,10 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>96.77338052596249</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27798,7 @@
         <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>85.3812036127635</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381038</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>67.71548039358828</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>325.2563498869367</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>156.9514780432986</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>62.65809879609674</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>177.3830154996373</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0183419716299</v>
+        <v>144.9598934448737</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2345848079164</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>155.0735065113024</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>10.00429411791848</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.1390768263938</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>225.284677700432</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2850602706034</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>120.6446715639381</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
     </row>
     <row r="26">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285244</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-8.521034289075272e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>117.3425372005507</v>
+        <v>59.24503031028146</v>
       </c>
       <c r="N3" t="n">
         <v>244.5627323611424</v>
@@ -34793,7 +34793,7 @@
         <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604673</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>263.2420339516669</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516669</v>
+        <v>245.6915715436821</v>
       </c>
       <c r="O6" t="n">
         <v>263.0434990833254</v>
       </c>
       <c r="P6" t="n">
-        <v>9.770660483716004</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35729,7 +35729,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35738,7 +35738,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556544</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35814,13 +35814,13 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36294,7 +36294,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187476</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>274.9155166742618</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.9088557084179</v>
+        <v>30.90885570841789</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
@@ -36534,7 +36534,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472712</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.9088557084179</v>
+        <v>30.90885570841789</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36771,7 +36771,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472712</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.9088557084179</v>
+        <v>30.90885570841799</v>
       </c>
       <c r="K31" t="n">
-        <v>170.1035140727629</v>
+        <v>170.103514072763</v>
       </c>
       <c r="L31" t="n">
-        <v>268.6152724227809</v>
+        <v>268.615272422781</v>
       </c>
       <c r="M31" t="n">
-        <v>292.7109267218249</v>
+        <v>292.710926721825</v>
       </c>
       <c r="N31" t="n">
-        <v>291.677963348456</v>
+        <v>291.6779633484561</v>
       </c>
       <c r="O31" t="n">
         <v>254.6384370634553</v>
       </c>
       <c r="P31" t="n">
-        <v>196.7846861546531</v>
+        <v>196.7846861546532</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472722</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>374.2497035813871</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>350.315067311054</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.315067311054</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38020,22 +38020,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349858</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>350.315067311054</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
